--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>南方科创板 3 年定期开放混合</t>
   </si>
   <si>
+    <t>30.46</t>
+  </si>
+  <si>
     <t>90.54</t>
   </si>
   <si>
     <t>3.48</t>
+  </si>
+  <si>
+    <t>1.0600</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020-Q4" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>506000</t>
-  </si>
-  <si>
-    <t>南方科创板 3 年定期开放混合</t>
-  </si>
-  <si>
-    <t>30.46</t>
-  </si>
-  <si>
-    <t>90.54</t>
-  </si>
-  <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>1.0600</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1582</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9259</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5240</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004044</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>30.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>28.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1106,4 +1107,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.35</v>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1797</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8217</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,515 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6839</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5041</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010418</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通景气行业一年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1542</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501026</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通多策略福享混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.45</v>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0248</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.35</v>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3799</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>013123</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013124</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富精选核心优势一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.31</v>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>4.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2375,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2391,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2407,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,91 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方科创板 3 年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30.46</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.54</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.48</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0600</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -550,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -601,36 +639,74 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>506007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>广发科创板两年定开混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>71.89</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.2898</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -644,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -705,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.57</t>
+          <t>24.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.72</t>
+          <t>83.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1582</t>
+          <t>1.0248</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -733,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011665</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>12.03</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30.18</t>
+          <t>69.69</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9259</t>
+          <t>0.4944</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -771,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>国泰估值优势混合 (LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.11</t>
+          <t>8.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>78.83</t>
+          <t>62.69</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8325</t>
+          <t>0.3799</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -809,36 +885,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>013123</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>汇添富精选核心优势一年持有混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.13</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.30</t>
+          <t>66.61</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.40</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7123</t>
+          <t>0.2183</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -847,36 +923,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.15</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5240</t>
+          <t>0.0776</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -895,12 +971,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>79.76</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -910,11 +986,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0660</t>
+          <t>0.0681</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -923,36 +999,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004044</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰转型动力灵活配置混合</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>86.43</t>
+          <t>79.76</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0446</t>
+          <t>0.0243</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -961,36 +1037,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011666</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>30.18</t>
+          <t>50.08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0392</t>
+          <t>0.0128</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -999,32 +1075,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>013124</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>汇添富精选核心优势一年持有混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.41</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.97</t>
+          <t>66.61</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0216</t>
+          <t>0.0106</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1037,36 +1113,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>350007</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天治趋势精选混合</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>28.67</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0175</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1075,36 +1151,74 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>350008</t>
+          <t>004833</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>天治新消费灵活配置混合</t>
+          <t>先锋聚利灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>71.80</t>
+          <t>94.68</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.35</t>
+          <t>4.92</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0040</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1689,7 +1803,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1729,26 +1843,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.17</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83.18</t>
+          <t>91.72</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0248</t>
+          <t>1.1582</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1757,36 +1871,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>011665</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.03</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>69.69</t>
+          <t>30.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4944</t>
+          <t>0.9259</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1795,36 +1909,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.98</t>
+          <t>13.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>62.69</t>
+          <t>78.83</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>6.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3799</t>
+          <t>0.8325</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1833,36 +1947,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013123</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富精选核心优势一年持有混合A</t>
+          <t>国泰估值优势混合 (LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>11.13</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>66.61</t>
+          <t>93.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>6.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2183</t>
+          <t>0.7123</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1871,36 +1985,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>93.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>6.43</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0776</t>
+          <t>0.5240</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1919,12 +2033,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>81.97</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1934,11 +2048,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0681</t>
+          <t>0.0660</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1947,36 +2061,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006503</t>
+          <t>004044</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通集成电路产业股票C</t>
+          <t>金鹰转型动力灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.76</t>
+          <t>86.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0243</t>
+          <t>0.0446</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1985,36 +2099,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>011666</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50.08</t>
+          <t>30.18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0128</t>
+          <t>0.0392</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2023,32 +2137,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>013124</t>
+          <t>006503</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富精选核心优势一年持有混合C</t>
+          <t>财通集成电路产业股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.30</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>66.61</t>
+          <t>81.97</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0106</t>
+          <t>0.0216</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -2061,36 +2175,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>350007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>天治趋势精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>28.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0175</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2099,74 +2213,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004833</t>
+          <t>350008</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>先锋聚利灵活配置混合A</t>
+          <t>天治新消费灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.68</t>
+          <t>71.80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.92</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0010</t>
+          <t>0.0040</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004834</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>先锋聚利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2180,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2201,7 +2277,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2231,74 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506007</t>
+          <t>000788</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发科创板两年定开混合</t>
+          <t>前海开源中国成长灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71.89</t>
+          <t>91.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2898</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>002133</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发鑫益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0816</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2312,128 +2350,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.35</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.06</v>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0600</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.37</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>4.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -583,6 +600,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7102</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1871</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1776,7 +2267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2250,7 +2741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +2835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
+++ b/数据整理/stocks/A股/科创板/688508-芯朋微.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>2.52</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.37</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.31</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>4.45</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>4.35</v>
+        <v>4.45</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.06</v>
       </c>
     </row>
@@ -600,6 +617,970 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8723</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011136</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发盛兴混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6948</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012342</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2323</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006081</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013000</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006080</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通电子信息传媒产业股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1057</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011137</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发盛兴混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013346</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002133</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发鑫益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富荣信息技术混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010026</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010162</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发瑞安精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012343</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发瑞泽精选混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>013001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发盛泽一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014433</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>31.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>017458</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014434</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰智享科技1个月滚动持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>61.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +2054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1205,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +3248,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2741,7 +3722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2835,7 +3816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
